--- a/excel/lottery-2018.xlsx
+++ b/excel/lottery-2018.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dev\PTV-Investing\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3F96C8E-6766-4D1D-9078-953BBFCA3FB6}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B130D95E-D9C5-4BBA-80F3-14A633D86E67}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1207,27 +1207,27 @@
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" s="12">
-        <v>73.5</v>
+        <v>139.1</v>
       </c>
       <c r="B20" s="13">
         <f t="shared" ref="B20" si="10">A20*1000000</f>
-        <v>73500000</v>
+        <v>139100000</v>
       </c>
       <c r="C20" s="13">
         <f>B20*N20</f>
-        <v>7350000</v>
+        <v>13910000</v>
       </c>
       <c r="D20" s="13">
         <f>($B20-$C20)*L20</f>
-        <v>23152500</v>
+        <v>43816500</v>
       </c>
       <c r="E20" s="13">
         <f>($B20-$C20)*M20</f>
-        <v>2646000</v>
+        <v>5007600</v>
       </c>
       <c r="F20" s="14">
         <f>SUM(D20:E20)</f>
-        <v>25798500</v>
+        <v>48824100</v>
       </c>
       <c r="G20" s="14">
         <v>500000</v>
@@ -1237,11 +1237,11 @@
       </c>
       <c r="I20" s="13">
         <f>B20-F20-G20-H20</f>
-        <v>46701500</v>
+        <v>89275900</v>
       </c>
       <c r="J20" s="13">
         <f>I20*0.5</f>
-        <v>23350750</v>
+        <v>44637950</v>
       </c>
       <c r="K20" s="15"/>
       <c r="L20" s="16">
@@ -1291,7 +1291,7 @@
   <dimension ref="A1:AE16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1328,7 +1328,7 @@
     <row r="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A1" s="3">
         <f>Whatever!J20-B1</f>
-        <v>20350750</v>
+        <v>41637950</v>
       </c>
       <c r="B1" s="3">
         <v>3000000</v>
@@ -1338,7 +1338,7 @@
       </c>
       <c r="I1" s="3">
         <f>F16-$A$2+G7</f>
-        <v>7630580.3731000004</v>
+        <v>10681285.074914999</v>
       </c>
       <c r="K1" s="25">
         <f>E1+1</f>
@@ -1346,7 +1346,7 @@
       </c>
       <c r="O1" s="3">
         <f>L7-$A$2+M7</f>
-        <v>6557509.9354471955</v>
+        <v>9121245.5715089031</v>
       </c>
       <c r="Q1" s="25">
         <f>K1+1</f>
@@ -1354,7 +1354,7 @@
       </c>
       <c r="U1" s="3">
         <f>R7-$A$2+S7</f>
-        <v>5494715.2203053543</v>
+        <v>7569975.0501514524</v>
       </c>
       <c r="W1" s="25">
         <f>Q1+1</f>
@@ -1362,7 +1362,7 @@
       </c>
       <c r="AA1" s="3">
         <f>X7-$A$2+Y7</f>
-        <v>4442097.8273557099</v>
+        <v>6027424.2203945518</v>
       </c>
       <c r="AC1" s="25">
         <f>W1+1</f>
@@ -1371,7 +1371,7 @@
     </row>
     <row r="2" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
-        <v>1000000</v>
+        <v>1500000</v>
       </c>
       <c r="K2" s="5"/>
       <c r="Q2" s="5"/>
@@ -1397,287 +1397,287 @@
     </row>
     <row r="4" spans="1:31" ht="18" x14ac:dyDescent="0.35">
       <c r="A4" s="21">
-        <v>1.55E-2</v>
+        <v>1.67E-2</v>
       </c>
       <c r="C4" s="19" t="s">
         <v>15</v>
       </c>
       <c r="D4" s="21">
         <f>$A$4</f>
-        <v>1.55E-2</v>
+        <v>1.67E-2</v>
       </c>
       <c r="E4" s="21">
         <v>0.03</v>
       </c>
       <c r="F4" s="22">
         <f>E4*F$16</f>
-        <v>253735.125</v>
+        <v>356741.55</v>
       </c>
       <c r="G4" s="22">
         <f t="shared" ref="G4" si="0">D4*F4</f>
-        <v>3932.8944375000001</v>
+        <v>5957.583885</v>
       </c>
       <c r="I4" s="19" t="s">
         <v>15</v>
       </c>
       <c r="J4" s="21">
         <f>$A$4</f>
-        <v>1.55E-2</v>
+        <v>1.67E-2</v>
       </c>
       <c r="K4" s="21">
         <v>0.03</v>
       </c>
       <c r="L4" s="22">
         <f>I$1*K4</f>
-        <v>228917.41119300001</v>
+        <v>320438.55224744999</v>
       </c>
       <c r="M4" s="22">
         <f t="shared" ref="M4:M6" si="1">J4*L4</f>
-        <v>3548.2198734915</v>
+        <v>5351.3238225324149</v>
       </c>
       <c r="O4" s="19" t="s">
         <v>15</v>
       </c>
       <c r="P4" s="21">
         <f>$A$4</f>
-        <v>1.55E-2</v>
+        <v>1.67E-2</v>
       </c>
       <c r="Q4" s="21">
         <v>0.03</v>
       </c>
       <c r="R4" s="22">
         <f>O$1*Q4</f>
-        <v>196725.29806341586</v>
+        <v>273637.36714526708</v>
       </c>
       <c r="S4" s="22">
         <f t="shared" ref="S4:S6" si="2">P4*R4</f>
-        <v>3049.242119982946</v>
+        <v>4569.7440313259603</v>
       </c>
       <c r="U4" s="19" t="s">
         <v>15</v>
       </c>
       <c r="V4" s="21">
         <f>$A$4</f>
-        <v>1.55E-2</v>
+        <v>1.67E-2</v>
       </c>
       <c r="W4" s="21">
         <v>0.03</v>
       </c>
       <c r="X4" s="22">
         <f>U$1*W4</f>
-        <v>164841.45660916061</v>
+        <v>227099.25150454356</v>
       </c>
       <c r="Y4" s="22">
         <f t="shared" ref="Y4:Y6" si="3">V4*X4</f>
-        <v>2555.0425774419896</v>
+        <v>3792.5575001258771</v>
       </c>
       <c r="AA4" s="19" t="s">
         <v>15</v>
       </c>
       <c r="AB4" s="21">
         <f>$A$4</f>
-        <v>1.55E-2</v>
+        <v>1.67E-2</v>
       </c>
       <c r="AC4" s="21">
         <v>0.03</v>
       </c>
       <c r="AD4" s="22">
         <f>AA$1*AC4</f>
-        <v>133262.9348206713</v>
+        <v>180822.72661183655</v>
       </c>
       <c r="AE4" s="22">
         <f t="shared" ref="AE4:AE6" si="4">AB4*AD4</f>
-        <v>2065.5754897204051</v>
+        <v>3019.7395344176703</v>
       </c>
     </row>
     <row r="5" spans="1:31" ht="18" x14ac:dyDescent="0.35">
       <c r="A5" s="21">
-        <v>1.77E-2</v>
+        <v>1.84E-2</v>
       </c>
       <c r="C5" s="19" t="s">
         <v>11</v>
       </c>
       <c r="D5" s="21">
         <f>$A$5</f>
-        <v>1.77E-2</v>
+        <v>1.84E-2</v>
       </c>
       <c r="E5" s="21">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="F5" s="22">
         <f>E5*F$16</f>
-        <v>592048.625</v>
+        <v>832396.95000000007</v>
       </c>
       <c r="G5" s="22">
         <f t="shared" ref="G5:G6" si="5">D5*F5</f>
-        <v>10479.260662500001</v>
+        <v>15316.103880000001</v>
       </c>
       <c r="I5" s="19" t="s">
         <v>11</v>
       </c>
       <c r="J5" s="21">
         <f>$A$5</f>
-        <v>1.77E-2</v>
+        <v>1.84E-2</v>
       </c>
       <c r="K5" s="21">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="L5" s="22">
         <f t="shared" ref="L5:L6" si="6">I$1*K5</f>
-        <v>534140.62611700012</v>
+        <v>747689.95524405001</v>
       </c>
       <c r="M5" s="22">
         <f t="shared" si="1"/>
-        <v>9454.2890822709032</v>
+        <v>13757.49517649052</v>
       </c>
       <c r="O5" s="19" t="s">
         <v>11</v>
       </c>
       <c r="P5" s="21">
         <f>$A$5</f>
-        <v>1.77E-2</v>
+        <v>1.84E-2</v>
       </c>
       <c r="Q5" s="21">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="R5" s="22">
         <f t="shared" ref="R5:R6" si="7">O$1*Q5</f>
-        <v>459025.69548130373</v>
+        <v>638487.19000562327</v>
       </c>
       <c r="S5" s="22">
         <f t="shared" si="2"/>
-        <v>8124.7548100190761</v>
+        <v>11748.164296103469</v>
       </c>
       <c r="U5" s="19" t="s">
         <v>11</v>
       </c>
       <c r="V5" s="21">
         <f>$A$5</f>
-        <v>1.77E-2</v>
+        <v>1.84E-2</v>
       </c>
       <c r="W5" s="21">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="X5" s="22">
         <f t="shared" ref="X5:X6" si="8">U$1*W5</f>
-        <v>384630.06542137486</v>
+        <v>529898.2535106017</v>
       </c>
       <c r="Y5" s="22">
         <f t="shared" si="3"/>
-        <v>6807.9521579583352</v>
+        <v>9750.1278645950715</v>
       </c>
       <c r="AA5" s="19" t="s">
         <v>11</v>
       </c>
       <c r="AB5" s="21">
         <f>$A$5</f>
-        <v>1.77E-2</v>
+        <v>1.84E-2</v>
       </c>
       <c r="AC5" s="21">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="AD5" s="22">
         <f t="shared" ref="AD5:AD6" si="9">AA$1*AC5</f>
-        <v>310946.8479148997</v>
+        <v>421919.69542761869</v>
       </c>
       <c r="AE5" s="22">
         <f t="shared" si="4"/>
-        <v>5503.7592080937247</v>
+        <v>7763.3223958681838</v>
       </c>
     </row>
     <row r="6" spans="1:31" ht="18.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="21">
-        <v>2.0799999999999999E-2</v>
+        <v>2.5100000000000001E-2</v>
       </c>
       <c r="C6" s="19" t="s">
         <v>12</v>
       </c>
       <c r="D6" s="21">
         <f>$A$6</f>
-        <v>2.0799999999999999E-2</v>
+        <v>2.5100000000000001E-2</v>
       </c>
       <c r="E6" s="21">
         <v>0.9</v>
       </c>
       <c r="F6" s="22">
         <f>E6*F$16</f>
-        <v>7612053.75</v>
+        <v>10702246.5</v>
       </c>
       <c r="G6" s="22">
         <f t="shared" si="5"/>
-        <v>158330.71799999999</v>
+        <v>268626.38715000002</v>
       </c>
       <c r="I6" s="19" t="s">
         <v>12</v>
       </c>
       <c r="J6" s="21">
         <f>$A$6</f>
-        <v>2.0799999999999999E-2</v>
+        <v>2.5100000000000001E-2</v>
       </c>
       <c r="K6" s="21">
         <v>0.9</v>
       </c>
       <c r="L6" s="22">
         <f t="shared" si="6"/>
-        <v>6867522.3357900009</v>
+        <v>9613156.5674235001</v>
       </c>
       <c r="M6" s="22">
         <f t="shared" si="1"/>
-        <v>142844.46458443202</v>
+        <v>241290.22984232986</v>
       </c>
       <c r="O6" s="19" t="s">
         <v>12</v>
       </c>
       <c r="P6" s="21">
         <f>$A$6</f>
-        <v>2.0799999999999999E-2</v>
+        <v>2.5100000000000001E-2</v>
       </c>
       <c r="Q6" s="21">
         <v>0.9</v>
       </c>
       <c r="R6" s="22">
         <f t="shared" si="7"/>
-        <v>5901758.9419024764</v>
+        <v>8209121.0143580129</v>
       </c>
       <c r="S6" s="22">
         <f t="shared" si="2"/>
-        <v>122756.5859915715</v>
+        <v>206048.93746038614</v>
       </c>
       <c r="U6" s="19" t="s">
         <v>12</v>
       </c>
       <c r="V6" s="21">
         <f>$A$6</f>
-        <v>2.0799999999999999E-2</v>
+        <v>2.5100000000000001E-2</v>
       </c>
       <c r="W6" s="21">
         <v>0.9</v>
       </c>
       <c r="X6" s="22">
         <f t="shared" si="8"/>
-        <v>4945243.6982748192</v>
+        <v>6812977.5451363074</v>
       </c>
       <c r="Y6" s="22">
         <f t="shared" si="3"/>
-        <v>102861.06892411623</v>
+        <v>171005.73638292131</v>
       </c>
       <c r="AA6" s="19" t="s">
         <v>12</v>
       </c>
       <c r="AB6" s="21">
         <f>$A$6</f>
-        <v>2.0799999999999999E-2</v>
+        <v>2.5100000000000001E-2</v>
       </c>
       <c r="AC6" s="21">
         <v>0.9</v>
       </c>
       <c r="AD6" s="22">
         <f t="shared" si="9"/>
-        <v>3997888.0446201391</v>
+        <v>5424681.798355097</v>
       </c>
       <c r="AE6" s="22">
         <f t="shared" si="4"/>
-        <v>83156.071328098886</v>
+        <v>136159.51313871294</v>
       </c>
     </row>
     <row r="7" spans="1:31" ht="18.75" thickBot="1" x14ac:dyDescent="0.4">
@@ -1687,11 +1687,11 @@
       </c>
       <c r="F7" s="23">
         <f>SUM(F4:F6)</f>
-        <v>8457837.5</v>
+        <v>11891385</v>
       </c>
       <c r="G7" s="23">
         <f>SUM(G4:G6)</f>
-        <v>172742.8731</v>
+        <v>289900.074915</v>
       </c>
       <c r="K7" s="24">
         <f ca="1">SUM(K5:K14)</f>
@@ -1699,11 +1699,11 @@
       </c>
       <c r="L7" s="23">
         <f>SUM(L5:L6)</f>
-        <v>7401662.9619070012</v>
+        <v>10360846.52266755</v>
       </c>
       <c r="M7" s="23">
         <f>SUM(M4:M6)</f>
-        <v>155846.97354019442</v>
+        <v>260399.04884135281</v>
       </c>
       <c r="Q7" s="24">
         <f ca="1">SUM(Q5:Q14)</f>
@@ -1711,11 +1711,11 @@
       </c>
       <c r="R7" s="23">
         <f>SUM(R5:R6)</f>
-        <v>6360784.6373837804</v>
+        <v>8847608.2043636367</v>
       </c>
       <c r="S7" s="23">
         <f>SUM(S4:S6)</f>
-        <v>133930.58292157351</v>
+        <v>222366.84578781558</v>
       </c>
       <c r="W7" s="24">
         <f ca="1">SUM(W5:W14)</f>
@@ -1723,11 +1723,11 @@
       </c>
       <c r="X7" s="23">
         <f>SUM(X5:X6)</f>
-        <v>5329873.7636961937</v>
+        <v>7342875.7986469092</v>
       </c>
       <c r="Y7" s="23">
         <f>SUM(Y4:Y6)</f>
-        <v>112224.06365951656</v>
+        <v>184548.42174764225</v>
       </c>
       <c r="AC7" s="24">
         <f ca="1">SUM(AC5:AC14)</f>
@@ -1735,11 +1735,11 @@
       </c>
       <c r="AD7" s="23">
         <f>SUM(AD5:AD6)</f>
-        <v>4308834.8925350383</v>
+        <v>5846601.4937827159</v>
       </c>
       <c r="AE7" s="23">
         <f>SUM(AE4:AE6)</f>
-        <v>90725.40602591302</v>
+        <v>146942.57506899879</v>
       </c>
     </row>
     <row r="12" spans="1:31" ht="18" x14ac:dyDescent="0.35">
@@ -1747,18 +1747,18 @@
         <v>16</v>
       </c>
       <c r="D12" s="21">
-        <v>2.5000000000000001E-2</v>
+        <v>2.7799999999999998E-2</v>
       </c>
       <c r="E12" s="21">
         <v>0.05</v>
       </c>
       <c r="F12" s="22">
         <f>($A$1-$A$2)*E12</f>
-        <v>967537.5</v>
+        <v>2006897.5</v>
       </c>
       <c r="G12" s="22">
         <f>D12*F12</f>
-        <v>24188.4375</v>
+        <v>55791.750499999995</v>
       </c>
     </row>
     <row r="13" spans="1:31" ht="18" x14ac:dyDescent="0.35">
@@ -1766,18 +1766,18 @@
         <v>13</v>
       </c>
       <c r="D13" s="21">
-        <v>2.7300000000000001E-2</v>
+        <v>2.9499999999999998E-2</v>
       </c>
       <c r="E13" s="21">
-        <v>0.25</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="F13" s="22">
         <f>($A$1-$A$2)*E13</f>
-        <v>4837687.5</v>
+        <v>22075872.5</v>
       </c>
       <c r="G13" s="22">
         <f>D13*F13</f>
-        <v>132068.86874999999</v>
+        <v>651238.23875000002</v>
       </c>
     </row>
     <row r="14" spans="1:31" ht="18" x14ac:dyDescent="0.35">
@@ -1785,34 +1785,34 @@
         <v>14</v>
       </c>
       <c r="D14" s="21">
-        <v>2.9700000000000001E-2</v>
+        <v>3.1199999999999999E-2</v>
       </c>
       <c r="E14" s="21">
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="F14" s="22">
         <f>($A$1-$A3)*E14</f>
-        <v>5087687.5</v>
+        <v>4163795</v>
       </c>
       <c r="G14" s="22">
         <f>D14*F14</f>
-        <v>151104.31875000001</v>
+        <v>129910.40399999999</v>
       </c>
     </row>
     <row r="15" spans="1:31" x14ac:dyDescent="0.25">
       <c r="F15" s="26">
         <f>SUM(F12:F14)</f>
-        <v>10892912.5</v>
+        <v>28246565</v>
       </c>
       <c r="G15" s="26">
         <f>SUM(G12:G14)</f>
-        <v>307361.625</v>
+        <v>836940.39324999996</v>
       </c>
     </row>
     <row r="16" spans="1:31" x14ac:dyDescent="0.25">
       <c r="F16" s="3">
         <f>A1-F15-A2</f>
-        <v>8457837.5</v>
+        <v>11891385</v>
       </c>
     </row>
   </sheetData>
@@ -1822,31 +1822,31 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<sisl xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns="http://www.boldonjames.com/2008/01/sie/internal/label" sislVersion="0" policy="cde53ac1-bf5f-4aae-9cf1-07509e23a4b0" origin="defaultValue">
+  <element uid="bba94c65-ac3d-4f34-b2e1-8de11ef6f01c" value=""/>
+</sisl>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <WrappedLabelHistory xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns="http://www.boldonjames.com/2016/02/Classifier/internal/wrappedLabelHistory">
   <Value>PD94bWwgdmVyc2lvbj0iMS4wIiBlbmNvZGluZz0idXMtYXNjaWkiPz48bGFiZWxIaXN0b3J5IHhtbG5zOnhzaT0iaHR0cDovL3d3dy53My5vcmcvMjAwMS9YTUxTY2hlbWEtaW5zdGFuY2UiIHhtbG5zOnhzZD0iaHR0cDovL3d3dy53My5vcmcvMjAwMS9YTUxTY2hlbWEiIHhtbG5zPSJodHRwOi8vd3d3LmJvbGRvbmphbWVzLmNvbS8yMDE2LzAyL0NsYXNzaWZpZXIvaW50ZXJuYWwvbGFiZWxIaXN0b3J5Ij48aXRlbT48c2lzbCBzaXNsVmVyc2lvbj0iMCIgcG9saWN5PSJjZGU1M2FjMS1iZjVmLTRhYWUtOWNmMS0wNzUwOWUyM2E0YjAiIG9yaWdpbj0iZGVmYXVsdFZhbHVlIj48ZWxlbWVudCB1aWQ9ImJiYTk0YzY1LWFjM2QtNGYzNC1iMmUxLThkZTExZWY2ZjAxYyIgdmFsdWU9IiIgeG1sbnM9Imh0dHA6Ly93d3cuYm9sZG9uamFtZXMuY29tLzIwMDgvMDEvc2llL2ludGVybmFsL2xhYmVsIiAvPjwvc2lzbD48VXNlck5hbWU+VVNcYWphPC9Vc2VyTmFtZT48RGF0ZVRpbWU+NC82LzIwMTggODoyNTowNCBQTTwvRGF0ZVRpbWU+PExhYmVsU3RyaW5nPk9yaWdpbiBKdXJpc2RpY3Rpb246IFVTIDwvTGFiZWxTdHJpbmc+PC9pdGVtPjwvbGFiZWxIaXN0b3J5Pg==</Value>
 </WrappedLabelHistory>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<sisl xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns="http://www.boldonjames.com/2008/01/sie/internal/label" sislVersion="0" policy="cde53ac1-bf5f-4aae-9cf1-07509e23a4b0" origin="defaultValue">
-  <element uid="bba94c65-ac3d-4f34-b2e1-8de11ef6f01c" value=""/>
-</sisl>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F28EFCB3-10C2-4551-8C8D-963853CC82DB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://www.boldonjames.com/2008/01/sie/internal/label"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{65E9778B-0230-4929-BE74-B4653834D2E8}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
     <ds:schemaRef ds:uri="http://www.boldonjames.com/2016/02/Classifier/internal/wrappedLabelHistory"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F28EFCB3-10C2-4551-8C8D-963853CC82DB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://www.boldonjames.com/2008/01/sie/internal/label"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>